--- a/main/ig/ValueSet-vsPrescriptionStatus.xlsx
+++ b/main/ig/ValueSet-vsPrescriptionStatus.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-22T14:46:13+00:00</t>
+    <t>2024-03-22T15:45:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-vsPrescriptionStatus.xlsx
+++ b/main/ig/ValueSet-vsPrescriptionStatus.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-22T15:45:14+00:00</t>
+    <t>2024-03-25T08:26:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
